--- a/database.xlsx
+++ b/database.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>order_id</t>
+  </si>
+  <si>
+    <t>1. Product_informations</t>
+  </si>
+  <si>
+    <t>language_type</t>
   </si>
 </sst>
 </file>
@@ -209,16 +215,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,21 +548,21 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,55 +594,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -642,20 +652,20 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,275 +673,305 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
